--- a/2012-1.xlsx
+++ b/2012-1.xlsx
@@ -1346,7 +1346,7 @@
   <dimension ref="A1:K1489"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
